--- a/Project Management/Team Knuth Gantt v3.xlsx
+++ b/Project Management/Team Knuth Gantt v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjep\Desktop\KF5012 Assignment\Team-Knuth\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFE8A79-91B5-4C88-9556-5D1B40887B70}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B33B3BC-B2E2-49CF-B108-4EE16FA43F4C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -258,13 +258,13 @@
     <t>Reporting Period</t>
   </si>
   <si>
-    <t>04/03/19 - 03/04/19</t>
-  </si>
-  <si>
     <t>◆</t>
   </si>
   <si>
     <t>Change Log</t>
+  </si>
+  <si>
+    <t>03/04/19 - 05/05/19</t>
   </si>
 </sst>
 </file>
@@ -826,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -847,7 +847,7 @@
       </c>
       <c r="P1" s="24"/>
       <c r="Q1" s="24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R1" s="24"/>
       <c r="S1" s="25"/>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="15" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C15" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="16">
         <v>2</v>
@@ -1487,7 +1487,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
@@ -1518,7 +1518,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
@@ -1707,7 +1707,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="18"/>
       <c r="R28" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
@@ -1770,7 +1770,7 @@
       <c r="Q30" s="10"/>
       <c r="R30" s="8"/>
       <c r="S30" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T30" s="10"/>
       <c r="U30" s="33"/>
